--- a/data/transformed_data07_03_24.xlsx
+++ b/data/transformed_data07_03_24.xlsx
@@ -1,36 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/rzyski_m_pg_com/Documents/Desktop/tst/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_73BB006CBE13E6C715372525E72A05F053378633" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738FB912-D80F-450F-A266-32213A858028}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="MG" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="LEMS" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="WZM" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="CPEO" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="MMN" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="typical CIDP" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="CMT" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="DMD BMD" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="LGMD" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="FSHD" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="DM1 " sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="DM2" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="SMA 3-4" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Pompe" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="SBMA (choroba Kennedy'ego)" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="DM" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="PM" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="IBM" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="SMA" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="SLA" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="MG" sheetId="2" r:id="rId2"/>
+    <sheet name="LEMS" sheetId="3" r:id="rId3"/>
+    <sheet name="WZM" sheetId="4" r:id="rId4"/>
+    <sheet name="CPEO" sheetId="5" r:id="rId5"/>
+    <sheet name="MMN" sheetId="6" r:id="rId6"/>
+    <sheet name="typical CIDP" sheetId="7" r:id="rId7"/>
+    <sheet name="CMT" sheetId="8" r:id="rId8"/>
+    <sheet name="DMD BMD" sheetId="9" r:id="rId9"/>
+    <sheet name="LGMD" sheetId="10" r:id="rId10"/>
+    <sheet name="FSHD" sheetId="11" r:id="rId11"/>
+    <sheet name="DM1 " sheetId="12" r:id="rId12"/>
+    <sheet name="DM2" sheetId="13" r:id="rId13"/>
+    <sheet name="SMA 3-4" sheetId="14" r:id="rId14"/>
+    <sheet name="Pompe" sheetId="15" r:id="rId15"/>
+    <sheet name="SBMA (choroba Kennedy'ego)" sheetId="16" r:id="rId16"/>
+    <sheet name="DM" sheetId="17" r:id="rId17"/>
+    <sheet name="PM" sheetId="18" r:id="rId18"/>
+    <sheet name="IBM" sheetId="19" r:id="rId19"/>
+    <sheet name="SMA" sheetId="20" r:id="rId20"/>
+    <sheet name="SLA" sheetId="21" r:id="rId21"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -40,858 +45,855 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="305">
-  <si>
-    <t xml:space="preserve">grupa objawów</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nazwa objawu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nasilenie w czasie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dynamika objawów</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cechy objawu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wiek wystapienia pierwszych objawów</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wywiad rodzinny - czy w rodzinie są lub były osoby z podobnymi objawami jak u pacjenta. jeśli tak to proszę wybrac pokrewiensto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wywiad rodzinny - czy w rodzinie do 2 pokoleń wstecz występowały poniższe objawy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grupa chorób</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poziom ck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objawy obligatoryjne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objawy wykluczające</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choroby współistniejące</t>
-  </si>
-  <si>
-    <t xml:space="preserve">podgrupa chorób</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cechy charakterystyczne i objawy współistniejące</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jednostka chorobowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">symptom_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niedowład mięśni twarzy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zeszczuplenie (zanik) mięśni ud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stałe/postępujące</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zmienność w ciągu doby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">symetryczny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-20rż</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ojciec matki  pacjenta( babcia)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bóle mięśni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuropatie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">powyżej normy do 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CK powyżej normy do 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objaw Babińskiego i inne objawy piramidowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stridor / porażenie strun głosowych u noworodka / niemowlęcia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondriopatie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drżenie palców dłoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eye,head,brain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niedowład kończyn dolnych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duszność (tylko przy zajęciu innych grup mięśni)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postępujące</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poprawa z wiekiem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asymetryczny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od urodzenia / wczesnego niemowlęctwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brat matki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nie - wywiad nieobciążony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miopatie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">norma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">początek objawów w postaci niedowładu proksymalnego kończyn dolnych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poziom CK &gt;1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kardiomiopatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuropatie nabyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nasilenie niedowładu na zimnie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSHD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objawy opuszkowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niedomykanie ust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zmienne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postępujące w ciągu lat- dekad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-50  rż</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deformacje stóp- wydrążone stopy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; 10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">powoli postępujące zajęcie obręczy biodrowej i barkowej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nasilone objawy opuszkowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cukrzyca t1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nabyte zaburzenia transmisji nerwowo-mięśniowej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">słabe ssanie / krztuszenie się pokarmem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdzeniowy zanik mięśni typ 3 lub 4 (SMA3lub4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niedowład kończyn górnych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dystalny niedowład kończyn górnych (osłabienie siły dłoni, uścisku dłoni, siły w palcach rąk, czynności precyzyjnych)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okresy zaostrzeń (pogorszenia / nasilenia) i remisji (poprawy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;10 rż</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brak danych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaburzenia transmisji nerwowo-mięśniowej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nie było oznaczone (komunikat- wykonaj badanie)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaniki mięśni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poziom CK &gt;5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niepłodność - oligospermia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kifoza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uśmiech poprzeczny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postępujące w ciągu tygodni- miesięcy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;50rż</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rodzice mogą być spokrewnieni/ pochodzą z tej samej/ pobliskich miejscowości</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opadanie powiek i/lub zaburzenia ruchomości gałek ocznych w rodzinie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;1000 do 10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niedowład proksymalny wcześniej niż niedowład dystalny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CK w normie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niealkoholowe stłuszczenie wątroby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdzeniowy zanik mięśni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zeszczuplenie mięśni skroni (wąski wymiar dwuskroniowy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrodzony zespół miasteniczny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objawy oczne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proksymalny niedowład kończyn górnych (osłaienie siły w ramionach, problemy z unoszeniem ramion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nasilenie w ciągu lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-30rż</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rodzeństwo matki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">problemy z chodzeniem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zajęcie mięśni twarzy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trudności w rozluźnieniu uścisku ręki- miotonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">albinizm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuropatie wrodzone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otwarte usta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niedowład mięśni osiowych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dysfagia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stałe (niepostępujące)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obciążony objawami jak u pacjenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dwojenie nie występuje lub występuje jedynie przejściowo, dominuje symetryczne opadanie powiek i ograniczenie ruchomości gałek ocznych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CK&gt;10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rak drobnokomórkowy płuca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miopatie wrodzone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">przodopochylenie miednicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choroba Pompego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zeszczuplenie mięśni skroni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ojciec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">przerost łydek u matki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niedowład dystalny większy niż proksymalny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">płeć żeńska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBS (obturacyjny bezdech senny)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dystrofie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dominujące zajęcie obręczy barkowej (ramion) i biodrowej (ud)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miastenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dystalny niedowład kończyn dolnych (opadanie stopy, trudności w chodzeniu na palcach, na piętach)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rodzeństwo cioteczne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">przerost łydek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">współwystępowanie symetrycznego niedowładu z dystalnymi zaburzeniami czucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaburzenia czucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrodzone zaburzenia transmisji nerwowo-mięśniowej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadmierna potliwość</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaburzenia mowy, dyzartria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ojciec ojca pacjenta(dziadek)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zmienność objawów w ciągu doby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dominujące zajęcie mięśni twarzy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kamica żółciowa i/lub usunęcie pęcherzyka żółciowego z powodu kamicy w młodym wieku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zajęcie mięśni twarzy (niedomykanie oczu) jako pierwszy objaw choroby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBMA (choroba Kennedy'ego)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oftalmoplegia bez dwojenia (ograniczenie ruchów gałek ocznych)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matka ojca pacjenta( babcia)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">płeć męska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oftalmoplegia (zaburzenia ruchomości gałek ocznych)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choroba Graves-Basedowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niedowład języka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zespół miasteniczny Lamberta-Eatona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proksymalny niedowład kończyn dolnych (osłaienie siły ud, problemy ze wstawaniem z krzesła, z wchodzeniem po schodach, problem ze wstaniem z przysiadu)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hipotonia (obniżone napięcie mięśniowe)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dominujące zaburzenia połykania (dysfagia)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pęcherzowe oddzielanie się naskórka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objawy poprawiają się z wiekiem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMD/BMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brak możliwości gwizdania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rodzeństwo ojca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objawy kończynowe są znacznie bardziej nasilone niż oczne i opuszkowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">izolowane dwojenie (bez innych objawów ocznych)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">powiększony język</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bóle mięśni w spoczynku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siostra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proksymalny niedowład kończyn dolnych (osłabienie siły ud, problemy ze wstawaniem z krzesła, z wchodzeniem po schodach, problem ze wstaniem z przysiadu)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">przepuklina pachwinowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trudności w rozluźnieniu uścisku ręki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niedowład proksymalny wcześniej niż dystalny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kurczowe bóle brzucha / dyskomfort w obrębie brzucha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">progresja w ciągu tygodni - miesięcy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matka matki pacjenta( babcia)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dominujący niedowład dystalny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cukrzyca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poprawa siły mięśniowej po krótkotrwałym wysiłku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dwojenie obrazu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ojciec matki pacjenta (dziadek)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miotonia- trudności w rozkurczu mięśnia np. otworzeniu zaciśniętej pięści, trudności w zainicjowaniu ruchu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niedosłuch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bezdechy w niemowlęctwie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niedomykanie powiek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">babka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">częste infekcje dróg oddechowych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asymetryczne odstawanie łopatek (łopatka odstająca / skrzydlata)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bóle mięśni po wysiłku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wczesna operacja kamicy pęcherzyka żółciowego ( np. w wieku około 20-30 lat)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rzadko początek pod postacią objawów ocznych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retinopatia wysiękowa (choroba Coatsa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drżenie rąk (palców dłoni)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trudności w zainicjowaniu ruchu, szczególnie pod odpoczynku(np. rozpoczęcie chodzenia czy biegania  po dłuższym siedzeniu, chodzenia po schodach)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choroby wątroby ( w tym podwyższony poziom GGTP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ptoza (opadanie powiek)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaburzenia rytmu serca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaburzenia gryzienia / żucia pokarmów</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaćma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pogorszenie po  / w czasie wysiłku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ataksja epizodyczna typu 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zeszczuplenie (zanik) mięśni ramion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">podwyższony poziom choleterolu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suchość spojówek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaburzenia funkcji poznawczych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biegunki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">symetryczna ptoza (opadanie powiek)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaparcia lub biegunki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaburzenia chodu- chód z opadaniem stóp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuropatia aksonalna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spanie z otwartymi oczami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ginekomastia (powiększenie piersi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaburzenia czucia rąk i/lub stóp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stymulator serca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pogorszenie w czasie gorączki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bóle brzucha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ból mięśni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zespół nerczycowy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dysmorfia twarzy / senny wyraz twarzy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">padaczka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaparcia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pogorszenie podczas leczenia sterydami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u kobiet straty ciąż</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaburzenia rytmu serca / tachyarytmie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sztywny kręgosłup (ograniczenie ruchomości w kręgosłupie piersiowym)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tętniaki wewnątrzczaszkowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zeszczupelnie (zanik) mięśni rąk (dłoni)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cukrzyca lub nieprawidłowa glikemia na czczo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">impotencja u mężczyzn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choroba Hashimoto/ niedoczynność tarczycy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okresy zaostrzeń (pogorszenia) i remisji (poprawy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaburzenia rytmu serca (RBBB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skolioza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaburzenia wzwodu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omdlenia ortostatyczne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hipogonadyzm (zanik jąder, niepłodność)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drganie, falowanie mięśni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insulinooporność</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiperlordoza lędźwiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hepatomegalia (powiększenie wątroby)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mikrogruczolak przysadki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drżenie palców rąk (dłoni)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">początkowo objawy asymetryczne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gammapatia monoklonalna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arefleksja (brak odruchów kolanowych w badaniu neurologicznym)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kamica żółciowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">przykurcze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zanik jąder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niezgrabny i powolny bieg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inna choroba nowotworowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zmęczenie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zwyrodnienie siatkówki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skurcze mięśni łydek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osteopenia / osteoporoza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stale zwężone źrenice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">łysienie czołowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadkomorowe zaburzenia rytmu serca (WPW, SVT, zespół chorej zatoki, AF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opóźnienie rozwoju intelektualnego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artrogrypoza (przykurcze stawowe)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dystalny niedowład kończyny górnej jako pierwszy objaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pogorszenie w czasie infekcji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zanik mięśni klatki piersiowej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ograniczenie odwodzenia ramion i charakterystyczny objaw trójkąta (tarasowania)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zeszczuplenie (zanik) mięśni łydek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osłabiona reakcja źrenic na światło</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opóźnione kroki milowe- późno pierwsze kroki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">przewlekła niewydolność oddechowa (poranne bóle głowy, przerywany sen, nadmierna senność w ciągu dnia)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niedowład kończyn górnych większy niż kończyn dolnych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">młotkowate ustawienie palców stóp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pogorszenie na zimnie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nietolerancja wysiłku fizycznego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaburzenia czucia bardziej nasilone w kończynach dolnych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wystający brzuch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suchość w jamie ustnej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">triada objawów: niedowład proksymalny + dyzautonomia + arefleksja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">powolny postęp choroby- w ciągu dekad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jednoczesne zajęcie mięśni dystalnych i proksymalnych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zanik mięśni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wysokie podniebienie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadmierna senność w ciągu dnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cichy płacz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objawy nasilają się podczas infekcji z gorączką / wysiłku / stresu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kurcze mięśni łydek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poprawa po odpoczynku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wstawanie z podłogi wspinając sę po sobie- objaw Gowers'a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mięśnie kończyn dolnych zajęte w większym stopniu niż kończyn górnych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zanik języka (z fascykulacjami)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skurcze i/lub fascykulacje w zajętej kończynie</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="304">
+  <si>
+    <t>grupa objawów</t>
+  </si>
+  <si>
+    <t>nazwa objawu</t>
+  </si>
+  <si>
+    <t>nasilenie w czasie</t>
+  </si>
+  <si>
+    <t>dynamika objawów</t>
+  </si>
+  <si>
+    <t>cechy objawu</t>
+  </si>
+  <si>
+    <t>wiek wystapienia pierwszych objawów</t>
+  </si>
+  <si>
+    <t>wywiad rodzinny - czy w rodzinie są lub były osoby z podobnymi objawami jak u pacjenta. jeśli tak to proszę wybrac pokrewiensto</t>
+  </si>
+  <si>
+    <t>wywiad rodzinny - czy w rodzinie do 2 pokoleń wstecz występowały poniższe objawy</t>
+  </si>
+  <si>
+    <t>grupa chorób</t>
+  </si>
+  <si>
+    <t>poziom ck</t>
+  </si>
+  <si>
+    <t>objawy obligatoryjne</t>
+  </si>
+  <si>
+    <t>objawy wykluczające</t>
+  </si>
+  <si>
+    <t>choroby współistniejące</t>
+  </si>
+  <si>
+    <t>podgrupa chorób</t>
+  </si>
+  <si>
+    <t>cechy charakterystyczne i objawy współistniejące</t>
+  </si>
+  <si>
+    <t>jednostka chorobowa</t>
+  </si>
+  <si>
+    <t>symptom_tag</t>
+  </si>
+  <si>
+    <t>niedowład mięśni twarzy</t>
+  </si>
+  <si>
+    <t>zeszczuplenie (zanik) mięśni ud</t>
+  </si>
+  <si>
+    <t>stałe/postępujące</t>
+  </si>
+  <si>
+    <t>zmienność w ciągu doby</t>
+  </si>
+  <si>
+    <t>symetryczny</t>
+  </si>
+  <si>
+    <t>10-20rż</t>
+  </si>
+  <si>
+    <t>ojciec matki  pacjenta( babcia)</t>
+  </si>
+  <si>
+    <t>bóle mięśni</t>
+  </si>
+  <si>
+    <t>neuropatie</t>
+  </si>
+  <si>
+    <t>powyżej normy do 1000</t>
+  </si>
+  <si>
+    <t>CK powyżej normy do 1000</t>
+  </si>
+  <si>
+    <t>objaw Babińskiego i inne objawy piramidowe</t>
+  </si>
+  <si>
+    <t>stridor / porażenie strun głosowych u noworodka / niemowlęcia</t>
+  </si>
+  <si>
+    <t>mitochondriopatie</t>
+  </si>
+  <si>
+    <t>drżenie palców dłoni</t>
+  </si>
+  <si>
+    <t>DM1</t>
+  </si>
+  <si>
+    <t>eye,head,brain</t>
+  </si>
+  <si>
+    <t>niedowład kończyn dolnych</t>
+  </si>
+  <si>
+    <t>duszność (tylko przy zajęciu innych grup mięśni)</t>
+  </si>
+  <si>
+    <t>postępujące</t>
+  </si>
+  <si>
+    <t>poprawa z wiekiem</t>
+  </si>
+  <si>
+    <t>asymetryczny</t>
+  </si>
+  <si>
+    <t>od urodzenia / wczesnego niemowlęctwa</t>
+  </si>
+  <si>
+    <t>brat matki</t>
+  </si>
+  <si>
+    <t>nie - wywiad nieobciążony</t>
+  </si>
+  <si>
+    <t>miopatie</t>
+  </si>
+  <si>
+    <t>norma</t>
+  </si>
+  <si>
+    <t>początek objawów w postaci niedowładu proksymalnego kończyn dolnych</t>
+  </si>
+  <si>
+    <t>poziom CK &gt;1000</t>
+  </si>
+  <si>
+    <t>kardiomiopatia</t>
+  </si>
+  <si>
+    <t>neuropatie nabyte</t>
+  </si>
+  <si>
+    <t>nasilenie niedowładu na zimnie</t>
+  </si>
+  <si>
+    <t>FSHD</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>Objawy opuszkowe</t>
+  </si>
+  <si>
+    <t>niedomykanie ust</t>
+  </si>
+  <si>
+    <t>zmienne</t>
+  </si>
+  <si>
+    <t>postępujące w ciągu lat- dekad</t>
+  </si>
+  <si>
+    <t>30-50  rż</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>deformacje stóp- wydrążone stopy</t>
+  </si>
+  <si>
+    <t>MND</t>
+  </si>
+  <si>
+    <t>&gt; 10000</t>
+  </si>
+  <si>
+    <t>powoli postępujące zajęcie obręczy biodrowej i barkowej</t>
+  </si>
+  <si>
+    <t>nasilone objawy opuszkowe</t>
+  </si>
+  <si>
+    <t>cukrzyca t1</t>
+  </si>
+  <si>
+    <t>nabyte zaburzenia transmisji nerwowo-mięśniowej</t>
+  </si>
+  <si>
+    <t>słabe ssanie / krztuszenie się pokarmem</t>
+  </si>
+  <si>
+    <t>rdzeniowy zanik mięśni typ 3 lub 4 (SMA3lub4</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>niedowład kończyn górnych</t>
+  </si>
+  <si>
+    <t>dystalny niedowład kończyn górnych (osłabienie siły dłoni, uścisku dłoni, siły w palcach rąk, czynności precyzyjnych)</t>
+  </si>
+  <si>
+    <t>okresy zaostrzeń (pogorszenia / nasilenia) i remisji (poprawy)</t>
+  </si>
+  <si>
+    <t>&lt;10 rż</t>
+  </si>
+  <si>
+    <t>matka</t>
+  </si>
+  <si>
+    <t>brak danych</t>
+  </si>
+  <si>
+    <t>zaburzenia transmisji nerwowo-mięśniowej</t>
+  </si>
+  <si>
+    <t>nie było oznaczone (komunikat- wykonaj badanie)</t>
+  </si>
+  <si>
+    <t>zaniki mięśni</t>
+  </si>
+  <si>
+    <t>poziom CK &gt;5000</t>
+  </si>
+  <si>
+    <t>niepłodność - oligospermia</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>kifoza</t>
+  </si>
+  <si>
+    <t>LGMD</t>
+  </si>
+  <si>
+    <t>Inne</t>
+  </si>
+  <si>
+    <t>uśmiech poprzeczny</t>
+  </si>
+  <si>
+    <t>postępujące w ciągu tygodni- miesięcy</t>
+  </si>
+  <si>
+    <t>&gt;50rż</t>
+  </si>
+  <si>
+    <t>rodzice mogą być spokrewnieni/ pochodzą z tej samej/ pobliskich miejscowości</t>
+  </si>
+  <si>
+    <t>opadanie powiek i/lub zaburzenia ruchomości gałek ocznych w rodzinie</t>
+  </si>
+  <si>
+    <t>&gt;1000 do 10000</t>
+  </si>
+  <si>
+    <t>niedowład proksymalny wcześniej niż niedowład dystalny</t>
+  </si>
+  <si>
+    <t>CK w normie</t>
+  </si>
+  <si>
+    <t>niealkoholowe stłuszczenie wątroby</t>
+  </si>
+  <si>
+    <t>rdzeniowy zanik mięśni</t>
+  </si>
+  <si>
+    <t>zeszczuplenie mięśni skroni (wąski wymiar dwuskroniowy)</t>
+  </si>
+  <si>
+    <t>wrodzony zespół miasteniczny</t>
+  </si>
+  <si>
+    <t>Objawy oczne</t>
+  </si>
+  <si>
+    <t>proksymalny niedowład kończyn górnych (osłaienie siły w ramionach, problemy z unoszeniem ramion)</t>
+  </si>
+  <si>
+    <t>20-30rż</t>
+  </si>
+  <si>
+    <t>rodzeństwo matki</t>
+  </si>
+  <si>
+    <t>problemy z chodzeniem</t>
+  </si>
+  <si>
+    <t>zajęcie mięśni twarzy</t>
+  </si>
+  <si>
+    <t>trudności w rozluźnieniu uścisku ręki- miotonia</t>
+  </si>
+  <si>
+    <t>albinizm</t>
+  </si>
+  <si>
+    <t>neuropatie wrodzone</t>
+  </si>
+  <si>
+    <t>otwarte usta</t>
+  </si>
+  <si>
+    <t>CMT</t>
+  </si>
+  <si>
+    <t>niedowład mięśni osiowych</t>
+  </si>
+  <si>
+    <t>dysfagia</t>
+  </si>
+  <si>
+    <t>stałe (niepostępujące)</t>
+  </si>
+  <si>
+    <t>brat</t>
+  </si>
+  <si>
+    <t>obciążony objawami jak u pacjenta</t>
+  </si>
+  <si>
+    <t>dwojenie nie występuje lub występuje jedynie przejściowo, dominuje symetryczne opadanie powiek i ograniczenie ruchomości gałek ocznych</t>
+  </si>
+  <si>
+    <t>CK&gt;10000</t>
+  </si>
+  <si>
+    <t>rak drobnokomórkowy płuca</t>
+  </si>
+  <si>
+    <t>miopatie wrodzone</t>
+  </si>
+  <si>
+    <t>przodopochylenie miednicy</t>
+  </si>
+  <si>
+    <t>choroba Pompego</t>
+  </si>
+  <si>
+    <t>zeszczuplenie mięśni skroni</t>
+  </si>
+  <si>
+    <t>ojciec</t>
+  </si>
+  <si>
+    <t>przerost łydek u matki</t>
+  </si>
+  <si>
+    <t>niedowład dystalny większy niż proksymalny</t>
+  </si>
+  <si>
+    <t>płeć żeńska</t>
+  </si>
+  <si>
+    <t>OBS (obturacyjny bezdech senny)</t>
+  </si>
+  <si>
+    <t>dystrofie</t>
+  </si>
+  <si>
+    <t>dominujące zajęcie obręczy barkowej (ramion) i biodrowej (ud)</t>
+  </si>
+  <si>
+    <t>miastenia</t>
+  </si>
+  <si>
+    <t>dystalny niedowład kończyn dolnych (opadanie stopy, trudności w chodzeniu na palcach, na piętach)</t>
+  </si>
+  <si>
+    <t>rodzeństwo cioteczne</t>
+  </si>
+  <si>
+    <t>przerost łydek</t>
+  </si>
+  <si>
+    <t>współwystępowanie symetrycznego niedowładu z dystalnymi zaburzeniami czucia</t>
+  </si>
+  <si>
+    <t>zaburzenia czucia</t>
+  </si>
+  <si>
+    <t>RZS</t>
+  </si>
+  <si>
+    <t>wrodzone zaburzenia transmisji nerwowo-mięśniowej</t>
+  </si>
+  <si>
+    <t>nadmierna potliwość</t>
+  </si>
+  <si>
+    <t>CIDP</t>
+  </si>
+  <si>
+    <t>zaburzenia mowy, dyzartria</t>
+  </si>
+  <si>
+    <t>ojciec ojca pacjenta(dziadek)</t>
+  </si>
+  <si>
+    <t>zmienność objawów w ciągu doby</t>
+  </si>
+  <si>
+    <t>dominujące zajęcie mięśni twarzy</t>
+  </si>
+  <si>
+    <t>kamica żółciowa i/lub usunęcie pęcherzyka żółciowego z powodu kamicy w młodym wieku</t>
+  </si>
+  <si>
+    <t>zajęcie mięśni twarzy (niedomykanie oczu) jako pierwszy objaw choroby</t>
+  </si>
+  <si>
+    <t>SBMA (choroba Kennedy'ego)</t>
+  </si>
+  <si>
+    <t>oftalmoplegia bez dwojenia (ograniczenie ruchów gałek ocznych)</t>
+  </si>
+  <si>
+    <t>matka ojca pacjenta( babcia)</t>
+  </si>
+  <si>
+    <t>płeć męska</t>
+  </si>
+  <si>
+    <t>oftalmoplegia (zaburzenia ruchomości gałek ocznych)</t>
+  </si>
+  <si>
+    <t>choroba Graves-Basedowa</t>
+  </si>
+  <si>
+    <t>niedowład języka</t>
+  </si>
+  <si>
+    <t>zespół miasteniczny Lamberta-Eatona</t>
+  </si>
+  <si>
+    <t>proksymalny niedowład kończyn dolnych (osłaienie siły ud, problemy ze wstawaniem z krzesła, z wchodzeniem po schodach, problem ze wstaniem z przysiadu)</t>
+  </si>
+  <si>
+    <t>hipotonia (obniżone napięcie mięśniowe)</t>
+  </si>
+  <si>
+    <t>dominujące zaburzenia połykania (dysfagia)</t>
+  </si>
+  <si>
+    <t>pęcherzowe oddzielanie się naskórka</t>
+  </si>
+  <si>
+    <t>objawy poprawiają się z wiekiem</t>
+  </si>
+  <si>
+    <t>DMD/BMD</t>
+  </si>
+  <si>
+    <t>brak możliwości gwizdania</t>
+  </si>
+  <si>
+    <t>rodzeństwo ojca</t>
+  </si>
+  <si>
+    <t>objawy kończynowe są znacznie bardziej nasilone niż oczne i opuszkowe</t>
+  </si>
+  <si>
+    <t>izolowane dwojenie (bez innych objawów ocznych)</t>
+  </si>
+  <si>
+    <t>powiększony język</t>
+  </si>
+  <si>
+    <t>CPEO</t>
+  </si>
+  <si>
+    <t>bóle mięśni w spoczynku</t>
+  </si>
+  <si>
+    <t>siostra</t>
+  </si>
+  <si>
+    <t>proksymalny niedowład kończyn dolnych (osłabienie siły ud, problemy ze wstawaniem z krzesła, z wchodzeniem po schodach, problem ze wstaniem z przysiadu)</t>
+  </si>
+  <si>
+    <t>przepuklina pachwinowa</t>
+  </si>
+  <si>
+    <t>MMN</t>
+  </si>
+  <si>
+    <t>trudności w rozluźnieniu uścisku ręki</t>
+  </si>
+  <si>
+    <t>niedowład proksymalny wcześniej niż dystalny</t>
+  </si>
+  <si>
+    <t>kurczowe bóle brzucha / dyskomfort w obrębie brzucha</t>
+  </si>
+  <si>
+    <t>progresja w ciągu tygodni - miesięcy</t>
+  </si>
+  <si>
+    <t>matka matki pacjenta( babcia)</t>
+  </si>
+  <si>
+    <t>dominujący niedowład dystalny</t>
+  </si>
+  <si>
+    <t>cukrzyca</t>
+  </si>
+  <si>
+    <t>poprawa siły mięśniowej po krótkotrwałym wysiłku</t>
+  </si>
+  <si>
+    <t>dwojenie obrazu</t>
+  </si>
+  <si>
+    <t>ojciec matki pacjenta (dziadek)</t>
+  </si>
+  <si>
+    <t>miotonia- trudności w rozkurczu mięśnia np. otworzeniu zaciśniętej pięści, trudności w zainicjowaniu ruchu</t>
+  </si>
+  <si>
+    <t>niedosłuch</t>
+  </si>
+  <si>
+    <t>bezdechy w niemowlęctwie</t>
+  </si>
+  <si>
+    <t>niedomykanie powiek</t>
+  </si>
+  <si>
+    <t>babka</t>
+  </si>
+  <si>
+    <t>częste infekcje dróg oddechowych</t>
+  </si>
+  <si>
+    <t>asymetryczne odstawanie łopatek (łopatka odstająca / skrzydlata)</t>
+  </si>
+  <si>
+    <t>bóle mięśni po wysiłku</t>
+  </si>
+  <si>
+    <t>wczesna operacja kamicy pęcherzyka żółciowego ( np. w wieku około 20-30 lat)</t>
+  </si>
+  <si>
+    <t>rzadko początek pod postacią objawów ocznych</t>
+  </si>
+  <si>
+    <t>retinopatia wysiękowa (choroba Coatsa)</t>
+  </si>
+  <si>
+    <t>drżenie rąk (palców dłoni)</t>
+  </si>
+  <si>
+    <t>trudności w zainicjowaniu ruchu, szczególnie pod odpoczynku(np. rozpoczęcie chodzenia czy biegania  po dłuższym siedzeniu, chodzenia po schodach)</t>
+  </si>
+  <si>
+    <t>choroby wątroby ( w tym podwyższony poziom GGTP)</t>
+  </si>
+  <si>
+    <t>ptoza (opadanie powiek)</t>
+  </si>
+  <si>
+    <t>zaburzenia rytmu serca</t>
+  </si>
+  <si>
+    <t>zaburzenia gryzienia / żucia pokarmów</t>
+  </si>
+  <si>
+    <t>zaćma</t>
+  </si>
+  <si>
+    <t>pogorszenie po  / w czasie wysiłku</t>
+  </si>
+  <si>
+    <t>ataksja epizodyczna typu 2</t>
+  </si>
+  <si>
+    <t>zeszczuplenie (zanik) mięśni ramion</t>
+  </si>
+  <si>
+    <t>podwyższony poziom choleterolu</t>
+  </si>
+  <si>
+    <t>suchość spojówek</t>
+  </si>
+  <si>
+    <t>zaburzenia funkcji poznawczych</t>
+  </si>
+  <si>
+    <t>biegunki</t>
+  </si>
+  <si>
+    <t>symetryczna ptoza (opadanie powiek)</t>
+  </si>
+  <si>
+    <t>zaparcia lub biegunki</t>
+  </si>
+  <si>
+    <t>zaburzenia chodu- chód z opadaniem stóp</t>
+  </si>
+  <si>
+    <t>neuropatia aksonalna</t>
+  </si>
+  <si>
+    <t>spanie z otwartymi oczami</t>
+  </si>
+  <si>
+    <t>ginekomastia (powiększenie piersi)</t>
+  </si>
+  <si>
+    <t>zaburzenia czucia rąk i/lub stóp</t>
+  </si>
+  <si>
+    <t>stymulator serca</t>
+  </si>
+  <si>
+    <t>pogorszenie w czasie gorączki</t>
+  </si>
+  <si>
+    <t>bóle brzucha</t>
+  </si>
+  <si>
+    <t>ból mięśni</t>
+  </si>
+  <si>
+    <t>zespół nerczycowy</t>
+  </si>
+  <si>
+    <t>dysmorfia twarzy / senny wyraz twarzy</t>
+  </si>
+  <si>
+    <t>padaczka</t>
+  </si>
+  <si>
+    <t>zaparcia</t>
+  </si>
+  <si>
+    <t>pogorszenie podczas leczenia sterydami</t>
+  </si>
+  <si>
+    <t>u kobiet straty ciąż</t>
+  </si>
+  <si>
+    <t>zaburzenia rytmu serca / tachyarytmie</t>
+  </si>
+  <si>
+    <t>sztywny kręgosłup (ograniczenie ruchomości w kręgosłupie piersiowym)</t>
+  </si>
+  <si>
+    <t>tętniaki wewnątrzczaszkowe</t>
+  </si>
+  <si>
+    <t>zeszczupelnie (zanik) mięśni rąk (dłoni)</t>
+  </si>
+  <si>
+    <t>cukrzyca lub nieprawidłowa glikemia na czczo</t>
+  </si>
+  <si>
+    <t>impotencja u mężczyzn</t>
+  </si>
+  <si>
+    <t>choroba Hashimoto/ niedoczynność tarczycy</t>
+  </si>
+  <si>
+    <t>okresy zaostrzeń (pogorszenia) i remisji (poprawy)</t>
+  </si>
+  <si>
+    <t>zaburzenia rytmu serca (RBBB)</t>
+  </si>
+  <si>
+    <t>skolioza</t>
+  </si>
+  <si>
+    <t>zaburzenia wzwodu</t>
+  </si>
+  <si>
+    <t>omdlenia ortostatyczne</t>
+  </si>
+  <si>
+    <t>hipogonadyzm (zanik jąder, niepłodność)</t>
+  </si>
+  <si>
+    <t>drganie, falowanie mięśni</t>
+  </si>
+  <si>
+    <t>insulinooporność</t>
+  </si>
+  <si>
+    <t>hiperlordoza lędźwiowa</t>
+  </si>
+  <si>
+    <t>hepatomegalia (powiększenie wątroby)</t>
+  </si>
+  <si>
+    <t>mikrogruczolak przysadki</t>
+  </si>
+  <si>
+    <t>drżenie palców rąk (dłoni)</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>początkowo objawy asymetryczne</t>
+  </si>
+  <si>
+    <t>gammapatia monoklonalna</t>
+  </si>
+  <si>
+    <t>arefleksja (brak odruchów kolanowych w badaniu neurologicznym)</t>
+  </si>
+  <si>
+    <t>kamica żółciowa</t>
+  </si>
+  <si>
+    <t>przykurcze</t>
+  </si>
+  <si>
+    <t>zanik jąder</t>
+  </si>
+  <si>
+    <t>niezgrabny i powolny bieg</t>
+  </si>
+  <si>
+    <t>inna choroba nowotworowa</t>
+  </si>
+  <si>
+    <t>zmęczenie</t>
+  </si>
+  <si>
+    <t>zwyrodnienie siatkówki</t>
+  </si>
+  <si>
+    <t>skurcze mięśni łydek</t>
+  </si>
+  <si>
+    <t>osteopenia / osteoporoza</t>
+  </si>
+  <si>
+    <t>stale zwężone źrenice</t>
+  </si>
+  <si>
+    <t>łysienie czołowe</t>
+  </si>
+  <si>
+    <t>nadkomorowe zaburzenia rytmu serca (WPW, SVT, zespół chorej zatoki, AF)</t>
+  </si>
+  <si>
+    <t>opóźnienie rozwoju intelektualnego</t>
+  </si>
+  <si>
+    <t>artrogrypoza (przykurcze stawowe)</t>
+  </si>
+  <si>
+    <t>dystalny niedowład kończyny górnej jako pierwszy objaw</t>
+  </si>
+  <si>
+    <t>pogorszenie w czasie infekcji</t>
+  </si>
+  <si>
+    <t>zanik mięśni klatki piersiowej</t>
+  </si>
+  <si>
+    <t>ograniczenie odwodzenia ramion i charakterystyczny objaw trójkąta (tarasowania)</t>
+  </si>
+  <si>
+    <t>zeszczuplenie (zanik) mięśni łydek</t>
+  </si>
+  <si>
+    <t>osłabiona reakcja źrenic na światło</t>
+  </si>
+  <si>
+    <t>opóźnione kroki milowe- późno pierwsze kroki</t>
+  </si>
+  <si>
+    <t>przewlekła niewydolność oddechowa (poranne bóle głowy, przerywany sen, nadmierna senność w ciągu dnia)</t>
+  </si>
+  <si>
+    <t>niedowład kończyn górnych większy niż kończyn dolnych</t>
+  </si>
+  <si>
+    <t>młotkowate ustawienie palców stóp</t>
+  </si>
+  <si>
+    <t>pogorszenie na zimnie</t>
+  </si>
+  <si>
+    <t>nietolerancja wysiłku fizycznego</t>
+  </si>
+  <si>
+    <t>zaburzenia czucia bardziej nasilone w kończynach dolnych</t>
+  </si>
+  <si>
+    <t>wystający brzuch</t>
+  </si>
+  <si>
+    <t>suchość w jamie ustnej</t>
+  </si>
+  <si>
+    <t>triada objawów: niedowład proksymalny + dyzautonomia + arefleksja</t>
+  </si>
+  <si>
+    <t>powolny postęp choroby- w ciągu dekad</t>
+  </si>
+  <si>
+    <t>jednoczesne zajęcie mięśni dystalnych i proksymalnych</t>
+  </si>
+  <si>
+    <t>zanik mięśni</t>
+  </si>
+  <si>
+    <t>wysokie podniebienie</t>
+  </si>
+  <si>
+    <t>nadmierna senność w ciągu dnia</t>
+  </si>
+  <si>
+    <t>cichy płacz</t>
+  </si>
+  <si>
+    <t>objawy nasilają się podczas infekcji z gorączką / wysiłku / stresu</t>
+  </si>
+  <si>
+    <t>kurcze mięśni łydek</t>
+  </si>
+  <si>
+    <t>poprawa po odpoczynku</t>
+  </si>
+  <si>
+    <t>wstawanie z podłogi wspinając sę po sobie- objaw Gowers'a</t>
+  </si>
+  <si>
+    <t>mięśnie kończyn dolnych zajęte w większym stopniu niż kończyn górnych</t>
+  </si>
+  <si>
+    <t>zanik języka (z fascykulacjami)</t>
+  </si>
+  <si>
+    <t>skurcze i/lub fascykulacje w zajętej kończynie</t>
   </si>
   <si>
     <t xml:space="preserve">dwojenie obrazu </t>
@@ -903,7 +905,7 @@
     <t xml:space="preserve">poprawa po odpoczynku </t>
   </si>
   <si>
-    <t xml:space="preserve">stałe</t>
+    <t>stałe</t>
   </si>
   <si>
     <t xml:space="preserve">oftalmoplegia bez dwojenia (ograniczenie ruchów gałek ocznych) </t>
@@ -933,7 +935,7 @@
     <t xml:space="preserve">stymulator serca </t>
   </si>
   <si>
-    <t xml:space="preserve">DM2</t>
+    <t>DM2</t>
   </si>
   <si>
     <t xml:space="preserve">powyżej normy do 1000 </t>
@@ -960,11 +962,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -973,25 +972,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1016,104 +999,378 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R24" activeCellId="0" sqref="R24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="1" width="14.55"/>
+    <col min="2" max="17" width="14.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="134.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1166,8 +1423,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="66.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1222,8 +1479,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1278,8 +1535,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="66.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1331,8 +1588,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="134.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1381,8 +1638,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="94.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1428,8 +1685,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="120.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1438,1130 +1695,1122 @@
       <c r="C7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="148.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="66.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="107.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="88.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="66.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="160.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="160.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="120.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="66.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="160.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+    <row r="21" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="160.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="22" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="P22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+    <row r="23" spans="1:18" ht="195" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="P23" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="P25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="P26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+    <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="P28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="N29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="P29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="N30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="P30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="N31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="P31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="N32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="P32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="N33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="P33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="N34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="P34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="N35" s="1" t="s">
+      <c r="P35" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="N36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="P36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="N37" s="1" t="s">
+      <c r="P37" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="N38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="P38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="N39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="P39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="N40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="P40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="N41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="P41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="N42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="P42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="N43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="N44" s="1" t="s">
+      <c r="P44" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="P44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="N45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="P45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="N46" s="1" t="s">
+      <c r="P46" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P46" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="N47" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="P47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="N48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="P49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="N50" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="N50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="P50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="N51" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="P51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="N52" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="N52" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="P52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="N53" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
-        <v>51</v>
-      </c>
-      <c r="N53" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="P53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="N54" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
-        <v>52</v>
-      </c>
-      <c r="N54" s="1" t="s">
+      <c r="P54" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="P54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="N55" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
-        <v>53</v>
-      </c>
-      <c r="N55" s="1" t="s">
+      <c r="P55" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="N56" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="P55" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
-        <v>54</v>
-      </c>
-      <c r="N56" s="1" t="s">
+      <c r="P56" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="N57" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="P56" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="N57" s="1" t="s">
+      <c r="P57" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="P57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="P58" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
-        <v>56</v>
-      </c>
-      <c r="P58" s="1" t="s">
+    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="P59" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
-        <v>57</v>
-      </c>
-      <c r="P59" s="1" t="s">
+    <row r="60" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="P60" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
-        <v>58</v>
-      </c>
-      <c r="P60" s="1" t="s">
+    <row r="61" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="P63" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
-        <v>59</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="100.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
-        <v>61</v>
-      </c>
-      <c r="P63" s="1" t="s">
+    <row r="64" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="P64" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
-        <v>62</v>
-      </c>
-      <c r="P64" s="1" t="s">
+    <row r="65" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="P65" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
-        <v>63</v>
-      </c>
-      <c r="P65" s="1" t="s">
+    <row r="66" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="P66" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
-        <v>64</v>
-      </c>
-      <c r="P66" s="1" t="s">
+    <row r="67" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="P67" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
-        <v>65</v>
-      </c>
-      <c r="P67" s="1" t="s">
+    <row r="68" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="P68" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
-        <v>66</v>
-      </c>
-      <c r="P68" s="1" t="s">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="P70" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
-        <v>67</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="P70" s="1" t="s">
+    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="P71" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="P71" s="1" t="s">
+    <row r="72" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="P72" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="P72" s="1" t="s">
+    <row r="73" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="P73" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
-        <v>71</v>
-      </c>
-      <c r="P73" s="1" t="s">
+    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="P74" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
-        <v>72</v>
-      </c>
-      <c r="P74" s="1" t="s">
+    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="P75" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
-        <v>73</v>
-      </c>
-      <c r="P75" s="1" t="s">
+    <row r="76" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="P76" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
-        <v>74</v>
-      </c>
-      <c r="P76" s="1" t="s">
+    <row r="77" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>75</v>
+      </c>
+      <c r="P77" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="P77" s="1" t="s">
+    <row r="78" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>76</v>
+      </c>
+      <c r="P78" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
-        <v>76</v>
-      </c>
-      <c r="P78" s="1" t="s">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>77</v>
+      </c>
+      <c r="P79" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
-        <v>77</v>
-      </c>
-      <c r="P79" s="1" t="s">
+    <row r="80" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>78</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>79</v>
+      </c>
+      <c r="P81" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
-        <v>78</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
-        <v>79</v>
-      </c>
-      <c r="P81" s="1" t="s">
+    <row r="82" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>80</v>
+      </c>
+      <c r="P82" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="P82" s="1" t="s">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>81</v>
+      </c>
+      <c r="P83" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
-        <v>81</v>
-      </c>
-      <c r="P83" s="1" t="s">
+    <row r="84" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>82</v>
+      </c>
+      <c r="P84" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
-        <v>82</v>
-      </c>
-      <c r="P84" s="1" t="s">
+    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>83</v>
+      </c>
+      <c r="P85" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
-        <v>83</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
+    <row r="86" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
         <v>84</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
+    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
         <v>85</v>
       </c>
       <c r="P87" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>86</v>
+      </c>
+      <c r="P88" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="n">
-        <v>86</v>
-      </c>
-      <c r="P88" s="1" t="s">
+    <row r="89" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>87</v>
+      </c>
+      <c r="P89" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="n">
-        <v>87</v>
-      </c>
-      <c r="P89" s="1" t="s">
+    <row r="90" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>88</v>
+      </c>
+      <c r="P90" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="n">
-        <v>88</v>
-      </c>
-      <c r="P90" s="1" t="s">
+    <row r="91" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>89</v>
+      </c>
+      <c r="P91" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
-        <v>89</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AMJ13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.22"/>
+    <col min="1" max="1024" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="225" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2611,8 +2860,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2622,7 +2871,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -2634,7 +2883,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>42</v>
@@ -2643,23 +2892,23 @@
         <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:17" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2675,7 +2924,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>41</v>
@@ -2684,135 +2933,130 @@
         <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="230.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="270" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="1" style="1" width="10.78"/>
+    <col min="1" max="18" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="240" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2862,8 +3106,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2873,10 +3117,10 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>39</v>
@@ -2885,33 +3129,33 @@
         <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:17" ht="210" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2927,30 +3171,30 @@
         <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="244.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="300" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
@@ -2962,63 +3206,63 @@
         <v>87</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3028,110 +3272,105 @@
         <v>82</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="100.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="15.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="15.55"/>
+    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" style="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="15.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3181,21 +3420,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -3216,33 +3455,33 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -3251,33 +3490,33 @@
         <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
@@ -3286,14 +3525,14 @@
         <v>71</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3303,20 +3542,20 @@
         <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3329,74 +3568,74 @@
         <v>55</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3406,86 +3645,81 @@
         <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:AMJ22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
+    <sheetView zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.89453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="16.89"/>
+    <col min="1" max="1024" width="16.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3535,15 +3769,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
@@ -3552,7 +3786,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>41</v>
@@ -3567,26 +3801,26 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="100.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3599,30 +3833,30 @@
         <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>84</v>
@@ -3634,241 +3868,236 @@
         <v>87</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="1" width="17.55"/>
+    <col min="2" max="17" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3918,8 +4147,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3929,7 +4158,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -3950,45 +4179,45 @@
         <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>87</v>
@@ -3997,14 +4226,14 @@
         <v>27</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -4014,102 +4243,102 @@
         <v>71</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>74</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -4119,50 +4348,45 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="8.88"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
+    <col min="8" max="17" width="12.7109375" style="1" customWidth="1"/>
+    <col min="18" max="1024" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="225" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4212,8 +4436,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4223,7 +4447,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -4244,27 +4468,27 @@
         <v>60</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -4276,206 +4500,201 @@
         <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>55</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="P12" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="1" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="14.77"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="11.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4525,18 +4744,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -4557,33 +4776,33 @@
         <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -4592,45 +4811,45 @@
         <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>90</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>77</v>
@@ -4639,8 +4858,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4653,14 +4872,14 @@
         <v>40</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4670,189 +4889,163 @@
         <v>68</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="14"/>
+    <col min="1" max="1024" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4902,15 +5095,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>53</v>
@@ -4937,39 +5130,39 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -4981,41 +5174,41 @@
         <v>72</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>55</v>
@@ -5024,11 +5217,11 @@
         <v>62</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5041,25 +5234,25 @@
         <v>84</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5069,101 +5262,82 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="187.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:17" ht="210" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMJ13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.0078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="19"/>
+    <col min="1" max="1024" width="19" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5213,15 +5387,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>53</v>
@@ -5248,42 +5422,42 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -5298,24 +5472,24 @@
         <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
@@ -5324,31 +5498,31 @@
         <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5361,25 +5535,25 @@
         <v>84</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5389,11 +5563,11 @@
         <v>95</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="100.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5403,81 +5577,76 @@
         <v>68</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.22265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="15.22"/>
+    <col min="1" max="1024" width="15.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5527,15 +5696,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>53</v>
@@ -5553,7 +5722,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>73</v>
@@ -5562,30 +5731,30 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>69</v>
@@ -5594,86 +5763,86 @@
         <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5683,31 +5852,31 @@
         <v>35</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5717,11 +5886,11 @@
         <v>95</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5731,62 +5900,57 @@
         <v>68</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="12.55"/>
+    <col min="1" max="1024" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="225" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5836,18 +6000,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>54</v>
@@ -5871,33 +6035,33 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>38</v>
@@ -5912,56 +6076,51 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="12.33"/>
+    <col min="1" max="1024" width="12.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="201.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="225" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6011,8 +6170,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6022,7 +6181,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>83</v>
@@ -6046,23 +6205,23 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6078,7 +6237,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>72</v>
@@ -6096,18 +6255,18 @@
         <v>61</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>55</v>
@@ -6116,64 +6275,59 @@
         <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView topLeftCell="A2" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="12.44"/>
+    <col min="1" max="1024" width="12.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="187.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="225" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6223,8 +6377,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6234,7 +6388,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>69</v>
@@ -6258,26 +6412,26 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6308,51 +6462,51 @@
         <v>28</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="201.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -6360,33 +6514,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AMJ13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="13"/>
+    <col min="1" max="1024" width="13" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="210" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6436,8 +6585,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6447,7 +6596,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>38</v>
@@ -6468,33 +6617,33 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -6506,24 +6655,24 @@
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>71</v>
@@ -6532,124 +6681,119 @@
         <v>41</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView topLeftCell="A2" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="1" width="8.88"/>
+    <col min="2" max="17" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="244.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="270" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6699,8 +6843,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6710,7 +6854,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -6722,7 +6866,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>42</v>
@@ -6734,23 +6878,23 @@
         <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="230.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="255" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6778,82 +6922,80 @@
         <v>89</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="316.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="360" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="201.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/data/transformed_data07_03_24.xlsx
+++ b/data/transformed_data07_03_24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/rzyski_m_pg_com/Documents/Desktop/tst/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocci.l\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_73BB006CBE13E6C715372525E72A05F053378633" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738FB912-D80F-450F-A266-32213A858028}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ED2065-DF43-43CE-B7E6-81AC6A5E3D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="309">
   <si>
     <t>grupa objawów</t>
   </si>
@@ -335,6 +335,9 @@
     <t>proksymalny niedowład kończyn górnych (osłaienie siły w ramionach, problemy z unoszeniem ramion)</t>
   </si>
   <si>
+    <t>nasilenie w ciągu lat</t>
+  </si>
+  <si>
     <t>20-30rż</t>
   </si>
   <si>
@@ -957,13 +960,25 @@
   </si>
   <si>
     <t xml:space="preserve">zanik języka (z fascykulacjami) </t>
+  </si>
+  <si>
+    <t>media_path</t>
+  </si>
+  <si>
+    <t>przerost łydek2.jpg</t>
+  </si>
+  <si>
+    <t>Miotonia czynna dłoni.MOV</t>
+  </si>
+  <si>
+    <t>waterfall.mp4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -982,6 +997,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1359,18 +1380,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R91"/>
+  <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="17" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2" max="17" width="14.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1422,8 +1444,11 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1478,8 +1503,11 @@
       <c r="R2" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1534,8 +1562,11 @@
       <c r="R3" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1587,8 +1618,11 @@
       <c r="R4" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="S4" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1637,8 +1671,11 @@
       <c r="R5" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="S5" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1684,8 +1721,11 @@
       <c r="R6" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="S6" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1695,1052 +1735,1109 @@
       <c r="C7" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="S7" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="S8" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="S9" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="S10" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="S11" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="S12" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="S13" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="S14" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="S15" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="S16" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="S17" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="S18" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="S19" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="S20" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="S21" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="195" x14ac:dyDescent="0.25">
+      <c r="S22" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="S23" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S24" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>31</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>32</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>33</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>34</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>35</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>37</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>38</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>39</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>40</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>41</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>42</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>44</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>45</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>46</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>48</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>49</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>50</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>51</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>52</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>53</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>54</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>55</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>56</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>57</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>58</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>59</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>60</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>61</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>62</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>63</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>64</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>65</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>66</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>67</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>68</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>69</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>70</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>71</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>72</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>73</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>74</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>75</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>76</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>77</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>78</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>79</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>80</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>81</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>82</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>83</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -2748,52 +2845,50 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>85</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>86</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>87</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>88</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>89</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -2805,12 +2900,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1024" width="11.28515625" style="1"/>
+    <col min="1" max="1024" width="11.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="216" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2860,7 +2955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2871,7 +2966,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -2883,7 +2978,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>42</v>
@@ -2892,22 +2987,22 @@
         <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2924,7 +3019,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>41</v>
@@ -2933,10 +3028,10 @@
         <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="270" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2944,16 +3039,16 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2961,85 +3056,82 @@
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -3051,12 +3143,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="18" width="10.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="240" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="216" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3106,7 +3198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3117,10 +3209,10 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>39</v>
@@ -3129,32 +3221,32 @@
         <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3171,22 +3263,22 @@
         <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="300" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3194,7 +3286,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
@@ -3206,16 +3298,16 @@
         <v>87</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3223,22 +3315,22 @@
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3246,22 +3338,22 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3272,13 +3364,13 @@
         <v>82</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3286,70 +3378,67 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -3358,19 +3447,19 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.5703125" style="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="15.5703125" style="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" style="1"/>
+    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="15.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3420,7 +3509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3428,13 +3517,13 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -3455,25 +3544,25 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3481,7 +3570,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -3490,25 +3579,25 @@
         <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3516,7 +3605,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
@@ -3525,13 +3614,13 @@
         <v>71</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3542,19 +3631,19 @@
         <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3568,16 +3657,16 @@
         <v>55</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3585,16 +3674,16 @@
         <v>84</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3602,19 +3691,19 @@
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3622,19 +3711,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3645,13 +3734,13 @@
         <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3659,16 +3748,16 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3676,23 +3765,23 @@
         <v>23</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3700,9 +3789,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -3714,12 +3800,12 @@
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1024" width="16.85546875" style="1"/>
+    <col min="1" max="1024" width="16.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3769,7 +3855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3777,7 +3863,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
@@ -3786,7 +3872,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>41</v>
@@ -3801,25 +3887,25 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3833,22 +3919,22 @@
         <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3856,7 +3942,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>84</v>
@@ -3868,141 +3954,141 @@
         <v>87</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4010,67 +4096,67 @@
         <v>23</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -4078,9 +4164,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -4092,12 +4175,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="17" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="17" width="17.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4147,7 +4230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -4158,7 +4241,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -4179,25 +4262,25 @@
         <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4205,19 +4288,19 @@
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>87</v>
@@ -4226,13 +4309,13 @@
         <v>27</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4243,90 +4326,90 @@
         <v>71</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>74</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -4334,10 +4417,10 @@
         <v>23</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -4348,20 +4431,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -4373,20 +4453,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="1" customWidth="1"/>
-    <col min="8" max="17" width="12.7109375" style="1" customWidth="1"/>
-    <col min="18" max="1024" width="8.85546875" style="1"/>
+    <col min="8" max="17" width="12.6640625" style="1" customWidth="1"/>
+    <col min="18" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4436,7 +4516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -4447,7 +4527,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -4468,19 +4548,19 @@
         <v>60</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4488,7 +4568,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -4500,13 +4580,13 @@
         <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4514,19 +4594,19 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4534,19 +4614,19 @@
         <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4554,13 +4634,13 @@
         <v>55</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4568,68 +4648,68 @@
         <v>84</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4637,7 +4717,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4645,28 +4725,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -4678,23 +4755,23 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="1" customWidth="1"/>
-    <col min="10" max="13" width="11.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="1" customWidth="1"/>
+    <col min="10" max="13" width="11.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" style="1" customWidth="1"/>
+    <col min="16" max="17" width="14.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4744,7 +4821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -4752,10 +4829,10 @@
         <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -4776,25 +4853,25 @@
         <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4802,7 +4879,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -4811,25 +4888,25 @@
         <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>90</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4837,19 +4914,19 @@
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>77</v>
@@ -4858,7 +4935,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4872,13 +4949,13 @@
         <v>40</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4889,16 +4966,16 @@
         <v>68</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4906,16 +4983,16 @@
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -4923,35 +5000,35 @@
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -4959,28 +5036,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -4990,13 +5064,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -5006,13 +5077,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -5022,13 +5090,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -5040,12 +5105,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1024" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5095,7 +5160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -5103,7 +5168,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>53</v>
@@ -5130,25 +5195,25 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5156,13 +5221,13 @@
         <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -5174,13 +5239,13 @@
         <v>72</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5188,19 +5253,19 @@
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5208,7 +5273,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>55</v>
@@ -5217,10 +5282,10 @@
         <v>62</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -5234,13 +5299,13 @@
         <v>84</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5248,10 +5313,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -5262,7 +5327,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="210" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -5270,15 +5335,15 @@
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -5286,9 +5351,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -5298,13 +5360,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -5314,13 +5373,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -5332,12 +5388,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1024" width="19" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5387,7 +5443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -5395,7 +5451,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>53</v>
@@ -5422,25 +5478,25 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5448,16 +5504,16 @@
         <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -5472,16 +5528,16 @@
         <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5489,7 +5545,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
@@ -5498,13 +5554,13 @@
         <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5512,16 +5568,16 @@
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -5535,10 +5591,10 @@
         <v>84</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5546,13 +5602,13 @@
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -5563,10 +5619,10 @@
         <v>95</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -5577,10 +5633,10 @@
         <v>68</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -5588,13 +5644,13 @@
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -5602,34 +5658,31 @@
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -5641,12 +5694,12 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1024" width="15.28515625" style="1"/>
+    <col min="1" max="1024" width="15.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5696,7 +5749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -5704,7 +5757,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>53</v>
@@ -5722,7 +5775,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>73</v>
@@ -5731,22 +5784,22 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5754,7 +5807,7 @@
         <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>69</v>
@@ -5763,19 +5816,19 @@
         <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5783,22 +5836,22 @@
         <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5806,22 +5859,22 @@
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -5829,19 +5882,19 @@
         <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5852,13 +5905,13 @@
         <v>35</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -5866,16 +5919,16 @@
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -5886,10 +5939,10 @@
         <v>95</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -5900,10 +5953,10 @@
         <v>68</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="195" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -5911,13 +5964,13 @@
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -5925,15 +5978,12 @@
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -5945,12 +5995,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1024" width="12.5703125" style="1"/>
+    <col min="1" max="1024" width="12.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6000,7 +6050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -6008,10 +6058,10 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>54</v>
@@ -6035,19 +6085,19 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6055,13 +6105,13 @@
         <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>38</v>
@@ -6076,7 +6126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6084,26 +6134,23 @@
         <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -6115,12 +6162,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1024" width="12.28515625" style="1"/>
+    <col min="1" max="1024" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="216" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6170,7 +6217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -6181,7 +6228,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>83</v>
@@ -6205,22 +6252,22 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6237,7 +6284,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>72</v>
@@ -6255,10 +6302,10 @@
         <v>61</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6266,7 +6313,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>55</v>
@@ -6275,10 +6322,10 @@
         <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -6286,31 +6333,28 @@
         <v>84</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -6322,12 +6366,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1024" width="12.42578125" style="1"/>
+    <col min="1" max="1024" width="12.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="216" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6377,7 +6421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -6388,7 +6432,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>69</v>
@@ -6412,25 +6456,25 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6462,13 +6506,13 @@
         <v>28</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6476,22 +6520,22 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -6499,13 +6543,13 @@
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -6516,9 +6560,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -6530,12 +6571,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1024" width="13" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="210" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6585,7 +6626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -6596,7 +6637,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>38</v>
@@ -6617,25 +6658,25 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6643,7 +6684,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -6655,24 +6696,24 @@
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>71</v>
@@ -6681,10 +6722,10 @@
         <v>41</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -6692,13 +6733,13 @@
         <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -6706,77 +6747,74 @@
         <v>84</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -6788,12 +6826,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="17" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="17" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="270" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6843,7 +6881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="216" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -6854,7 +6892,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -6866,7 +6904,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>42</v>
@@ -6878,22 +6916,22 @@
         <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="255" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -6922,10 +6960,10 @@
         <v>89</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="360" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -6933,19 +6971,19 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="210" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -6953,49 +6991,46 @@
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
--- a/data/transformed_data07_03_24.xlsx
+++ b/data/transformed_data07_03_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocci.l\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ED2065-DF43-43CE-B7E6-81AC6A5E3D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9189103C-412A-4B24-8669-C42EFD21756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -968,10 +968,10 @@
     <t>przerost łydek2.jpg</t>
   </si>
   <si>
-    <t>Miotonia czynna dłoni.MOV</t>
-  </si>
-  <si>
     <t>waterfall.mp4</t>
+  </si>
+  <si>
+    <t>https://static2.feelgoodcontacts.net/images/ech/img/droopy-eyelids-ptosis%E2%80%93causes-and-treatments-2.webp</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1563,7 +1563,7 @@
         <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -1672,7 +1672,7 @@
         <v>66</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
@@ -1722,7 +1722,7 @@
         <v>66</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
@@ -1769,7 +1769,7 @@
         <v>66</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
@@ -1813,7 +1813,7 @@
         <v>66</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -1851,7 +1851,7 @@
         <v>66</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
@@ -1889,7 +1889,7 @@
         <v>66</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
@@ -1921,7 +1921,7 @@
         <v>66</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -1953,7 +1953,7 @@
         <v>66</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
@@ -1985,7 +1985,7 @@
         <v>66</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
@@ -2017,7 +2017,7 @@
         <v>66</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
@@ -2046,7 +2046,7 @@
         <v>66</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -2072,7 +2072,7 @@
         <v>66</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -2098,7 +2098,7 @@
         <v>66</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="129.6" x14ac:dyDescent="0.3">
@@ -2124,7 +2124,7 @@
         <v>66</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -2147,7 +2147,7 @@
         <v>66</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
@@ -2167,7 +2167,7 @@
         <v>66</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
@@ -2187,7 +2187,7 @@
         <v>66</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
@@ -2207,7 +2207,7 @@
         <v>66</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
@@ -2227,7 +2227,7 @@
         <v>66</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -2247,7 +2247,7 @@
         <v>66</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
